--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_43.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_43.xlsx
@@ -508,99 +508,99 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_0</t>
+          <t>model_1_43_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999925070666063</v>
+        <v>0.9371893125486932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8277957197474815</v>
+        <v>0.7459999941546271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8196190398746712</v>
+        <v>0.6555018192664042</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999378384526827</v>
+        <v>0.9632800455488004</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003118953528888261</v>
+        <v>0.2614511633624799</v>
       </c>
       <c r="G2" t="n">
-        <v>1.151530814976392</v>
+        <v>1.698499208650494</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6452122352792911</v>
+        <v>1.232250017331853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002264863003754886</v>
+        <v>0.107013519579452</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06516408619274146</v>
+        <v>1.28685695884861</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01766055924620809</v>
+        <v>0.5113229540735287</v>
       </c>
       <c r="L2" t="n">
-        <v>1.004795477371971</v>
+        <v>0.914470553257795</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01793869540025346</v>
+        <v>0.5193757794647553</v>
       </c>
       <c r="N2" t="n">
-        <v>146.1456856676481</v>
+        <v>36.68301553740442</v>
       </c>
       <c r="O2" t="n">
-        <v>287.4808582108645</v>
+        <v>73.64759912563024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_1</t>
+          <t>model_1_43_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999274939999309</v>
+        <v>0.9371794854811667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8277788684068278</v>
+        <v>0.745984175610551</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8193865132170071</v>
+        <v>0.6554737168208907</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999297178199202</v>
+        <v>0.9634806475202159</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0003018081609681728</v>
+        <v>0.2614920687934106</v>
       </c>
       <c r="G3" t="n">
-        <v>1.151643499968936</v>
+        <v>1.698604987327569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6460439696510859</v>
+        <v>1.232350538149981</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000256073917647883</v>
+        <v>0.106428902214954</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06371407034391879</v>
+        <v>1.286785127004174</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01737262677225793</v>
+        <v>0.5113629521126952</v>
       </c>
       <c r="L3" t="n">
-        <v>1.004640384004425</v>
+        <v>0.9144571717190355</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01764622827766545</v>
+        <v>0.5194164074330554</v>
       </c>
       <c r="N3" t="n">
-        <v>146.2114379420295</v>
+        <v>36.68270265119804</v>
       </c>
       <c r="O3" t="n">
-        <v>287.5466104852459</v>
+        <v>73.64728623942386</v>
       </c>
     </row>
     <row r="4">
@@ -610,193 +610,193 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999326821441876</v>
+        <v>0.9369753497285795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8277600049128132</v>
+        <v>0.7456880823992502</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8187713064530282</v>
+        <v>0.6546827143818257</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999070746416695</v>
+        <v>0.966059241568473</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002802123719925812</v>
+        <v>0.2623417893133329</v>
       </c>
       <c r="G4" t="n">
-        <v>1.15176964024027</v>
+        <v>1.70058496399492</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6482445285741004</v>
+        <v>1.23517990800956</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003385745935813822</v>
+        <v>0.09891406651336417</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0598624492513971</v>
+        <v>1.286420026970717</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0167395451548894</v>
+        <v>0.5121931172061304</v>
       </c>
       <c r="L4" t="n">
-        <v>1.004308342771992</v>
+        <v>0.9141791996304062</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01700317625767282</v>
+        <v>0.5202596467968514</v>
       </c>
       <c r="N4" t="n">
-        <v>146.359925541774</v>
+        <v>36.67621417205869</v>
       </c>
       <c r="O4" t="n">
-        <v>287.6950980849904</v>
+        <v>73.6407977602845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_3</t>
+          <t>model_1_43_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999943619190531</v>
+        <v>0.9369491648611215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.827368557462365</v>
+        <v>0.7456597158754074</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8191023178123237</v>
+        <v>0.6545721970549014</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998930319184338</v>
+        <v>0.9662874909321589</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002346866246038874</v>
+        <v>0.2624507845231799</v>
       </c>
       <c r="G5" t="n">
-        <v>1.154387251143867</v>
+        <v>1.700774651070474</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6470605201350419</v>
+        <v>1.235575222079805</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003897394144411033</v>
+        <v>0.09824887593470336</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04709260401758621</v>
+        <v>1.28644482783929</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01531948512855074</v>
+        <v>0.5122995066591221</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003608371806017</v>
+        <v>0.9141435436406761</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01556075170545856</v>
+        <v>0.5203677117773774</v>
       </c>
       <c r="N5" t="n">
-        <v>146.7145188921256</v>
+        <v>36.67538340411837</v>
       </c>
       <c r="O5" t="n">
-        <v>288.049691435342</v>
+        <v>73.6399669923442</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_6</t>
+          <t>model_1_43_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999438288481748</v>
+        <v>0.9365174340198603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8272320005176884</v>
+        <v>0.7449106433581995</v>
       </c>
       <c r="D6" t="n">
-        <v>0.817885383182525</v>
+        <v>0.6527521467759616</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998280998215536</v>
+        <v>0.9688979325154921</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0002338139190641003</v>
+        <v>0.2642478756757755</v>
       </c>
       <c r="G6" t="n">
-        <v>1.155300408061707</v>
+        <v>1.705783702442205</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6514134247439074</v>
+        <v>1.242085436394994</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0006263202434695915</v>
+        <v>0.09064122647913853</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04040240782674881</v>
+        <v>1.289977189028341</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0152909750854581</v>
+        <v>0.5140504602427426</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003594953716814</v>
+        <v>0.9135556548355545</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01553179265768679</v>
+        <v>0.5221462411296285</v>
       </c>
       <c r="N6" t="n">
-        <v>146.7219699532693</v>
+        <v>36.66173538666803</v>
       </c>
       <c r="O6" t="n">
-        <v>288.0571424964857</v>
+        <v>73.62631897489385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_4</t>
+          <t>model_1_43_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999448667611528</v>
+        <v>0.9372524063099631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8271571844476067</v>
+        <v>0.7446404857266499</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8181924859187654</v>
+        <v>0.655216842679438</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998536990922969</v>
+        <v>0.959567304376224</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002294935785842809</v>
+        <v>0.2611885338967903</v>
       </c>
       <c r="G7" t="n">
-        <v>1.155800703466839</v>
+        <v>1.707590247768338</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6503149360632156</v>
+        <v>1.233269362059539</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0005330490111212881</v>
+        <v>0.1178336174282381</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04295429486317589</v>
+        <v>1.289610071388057</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0151490454677607</v>
+        <v>0.5110660758618109</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003528527286221</v>
+        <v>0.9145564681667583</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01538762779038822</v>
+        <v>0.5191148556779869</v>
       </c>
       <c r="N7" t="n">
-        <v>146.7592710177601</v>
+        <v>36.68502556067033</v>
       </c>
       <c r="O7" t="n">
-        <v>288.0944435609765</v>
+        <v>73.64960914889615</v>
       </c>
     </row>
     <row r="8">
@@ -806,144 +806,144 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999437099133414</v>
+        <v>0.9372508334543175</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8271498383376412</v>
+        <v>0.7446192245556692</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8178715558012832</v>
+        <v>0.6551724802862348</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998240375788935</v>
+        <v>0.9594130295973994</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002343089884837595</v>
+        <v>0.2611950809504053</v>
       </c>
       <c r="G8" t="n">
-        <v>1.155849826938004</v>
+        <v>1.707732421316585</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6514628844848519</v>
+        <v>1.233428043767748</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0006411210705250044</v>
+        <v>0.1182832227534924</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04081327747369346</v>
+        <v>1.289781470125787</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01530715481347724</v>
+        <v>0.5110724811124204</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003602565546153</v>
+        <v>0.9145543264058791</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01554822720024844</v>
+        <v>0.5191213618048907</v>
       </c>
       <c r="N8" t="n">
-        <v>146.7177397000922</v>
+        <v>36.68497542851895</v>
       </c>
       <c r="O8" t="n">
-        <v>288.0529122433086</v>
+        <v>73.64955901674476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_5</t>
+          <t>model_1_43_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999437430564019</v>
+        <v>0.9372490151440787</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8270871103246402</v>
+        <v>0.7445494581559611</v>
       </c>
       <c r="D9" t="n">
-        <v>0.818239176442162</v>
+        <v>0.6551261928832227</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998465908301147</v>
+        <v>0.9592606197765675</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000234171029609392</v>
+        <v>0.2612026497153176</v>
       </c>
       <c r="G9" t="n">
-        <v>1.156269289449778</v>
+        <v>1.708198949552678</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6501479267682978</v>
+        <v>1.233593611124424</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0005589480447399087</v>
+        <v>0.1187273930034139</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04306134172556544</v>
+        <v>1.289955364173079</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0153026477973386</v>
+        <v>0.5110798858449798</v>
       </c>
       <c r="L9" t="n">
-        <v>1.00360044439028</v>
+        <v>0.9145518504089581</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01554364920311098</v>
+        <v>0.5191288831545859</v>
       </c>
       <c r="N9" t="n">
-        <v>146.7189176276283</v>
+        <v>36.68491747447766</v>
       </c>
       <c r="O9" t="n">
-        <v>288.0540901708447</v>
+        <v>73.64950106270348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_8</t>
+          <t>model_1_43_5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999943783248205</v>
+        <v>0.9372536884666897</v>
       </c>
       <c r="C10" t="n">
-        <v>0.827047324396851</v>
+        <v>0.7444813161028082</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8174879754400128</v>
+        <v>0.6552591011896931</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997954072066267</v>
+        <v>0.9597235180267173</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002340037301558236</v>
+        <v>0.2611831968851864</v>
       </c>
       <c r="G10" t="n">
-        <v>1.156535338132102</v>
+        <v>1.708654615775876</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6528349291958486</v>
+        <v>1.233118205818645</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0007454361555400003</v>
+        <v>0.1173783616199048</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03693257278563435</v>
+        <v>1.289440085533486</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01529718046424973</v>
+        <v>0.5110608543854502</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003597872114881</v>
+        <v>0.9145582140823008</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01553809576499129</v>
+        <v>0.5191095519685932</v>
       </c>
       <c r="N10" t="n">
-        <v>146.7203470037935</v>
+        <v>36.68506642820806</v>
       </c>
       <c r="O10" t="n">
-        <v>288.05551954701</v>
+        <v>73.64965001643388</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999380897921357</v>
+        <v>0.9372392982382408</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8264602575676849</v>
+        <v>0.7444415279694623</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8169204669732173</v>
+        <v>0.6549226689462768</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997501974270647</v>
+        <v>0.958669435558434</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000257702893041447</v>
+        <v>0.2612430965952784</v>
       </c>
       <c r="G11" t="n">
-        <v>1.160461056721929</v>
+        <v>1.708920679206768</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6548648740755447</v>
+        <v>1.234321604445884</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0009101584984626635</v>
+        <v>0.1204502901270032</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03374623934806318</v>
+        <v>1.290647467718591</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01605312720442491</v>
+        <v>0.5111194543306666</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003962253303314</v>
+        <v>0.9145386188776046</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01630594791065472</v>
+        <v>0.5191690748043684</v>
       </c>
       <c r="N11" t="n">
-        <v>146.5274064279522</v>
+        <v>36.68460780113586</v>
       </c>
       <c r="O11" t="n">
-        <v>287.8625789711685</v>
+        <v>73.64919138936168</v>
       </c>
     </row>
   </sheetData>
